--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="状态值" sheetId="2" r:id="rId1"/>
-    <sheet name="错误码" sheetId="1" r:id="rId2"/>
-    <sheet name="规则" sheetId="3" r:id="rId3"/>
+    <sheet name="技能值" sheetId="4" r:id="rId1"/>
+    <sheet name="状态值" sheetId="2" r:id="rId2"/>
+    <sheet name="错误码" sheetId="1" r:id="rId3"/>
+    <sheet name="规则" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -598,6 +599,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,11 +622,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -871,7 +886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C8"/>
   <sheetViews>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能值" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,38 @@
   </si>
   <si>
     <t>FAIL_SIGNUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_BUSIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_SMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_XF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败统一处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆验证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信获取失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞语音调用失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -624,10 +656,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D34"/>
+  <dimension ref="B1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -868,6 +900,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>50000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>50100</v>
@@ -877,6 +920,39 @@
       </c>
       <c r="D34" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>50101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>50102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>50200</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能值" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,54 @@
   </si>
   <si>
     <t>讯飞语音调用失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户尚未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_OLD_PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_SEARCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,23 +691,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>10011</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>10012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D37"/>
+  <dimension ref="B1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,70 +848,70 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B12">
-        <v>11001</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15">
+        <v>11003</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16">
         <v>11004</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17">
-        <v>11201</v>
+        <v>11005</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18">
-        <v>11202</v>
+        <v>11006</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
@@ -845,113 +925,157 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24">
-        <v>20001</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>11201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>11202</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25">
-        <v>20002</v>
+        <v>11500</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26">
-        <v>20003</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27">
-        <v>20004</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29">
-        <v>21001</v>
+        <v>20001</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33">
-        <v>50000</v>
-      </c>
-      <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>20002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>20003</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>20004</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34">
+        <v>21001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>50000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39">
         <v>50100</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
         <v>57</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40">
         <v>50101</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" t="s">
         <v>59</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B36">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41">
         <v>50102</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B37">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>50103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B44">
         <v>50200</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C44" t="s">
         <v>61</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D44" t="s">
         <v>65</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能值" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,14 @@
   </si>
   <si>
     <t>账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_XF_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞语音无对应技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -736,10 +744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D44"/>
+  <dimension ref="B1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1077,6 +1085,17 @@
       </c>
       <c r="D44" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <v>50201</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,30 @@
   </si>
   <si>
     <t>讯飞语音无对应技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN验证错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRE_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验token失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,10 +768,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D45"/>
+  <dimension ref="B1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1010,92 +1034,125 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>20005</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35">
         <v>21001</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B38">
-        <v>50000</v>
-      </c>
-      <c r="C38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" t="s">
-        <v>62</v>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>21002</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39">
-        <v>50100</v>
+        <v>50000</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40">
-        <v>50101</v>
+        <v>50100</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41">
-        <v>50102</v>
+        <v>50101</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42">
+        <v>50102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43">
         <v>50103</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>72</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B44">
-        <v>50200</v>
-      </c>
-      <c r="C44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B45">
+        <v>50200</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46">
         <v>50201</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>78</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <v>50500</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,14 @@
   </si>
   <si>
     <t>校验token失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_USERNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,10 +776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D48"/>
+  <dimension ref="B1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,113 +1053,124 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35">
-        <v>21001</v>
-      </c>
-      <c r="C35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
-        <v>24</v>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>20006</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36">
+        <v>21001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37">
         <v>21002</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>82</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B39">
-        <v>50000</v>
-      </c>
-      <c r="C39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40">
-        <v>50100</v>
+        <v>50000</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41">
-        <v>50101</v>
+        <v>50100</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42">
-        <v>50102</v>
+        <v>50101</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43">
+        <v>50102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B44">
         <v>50103</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>72</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B45">
-        <v>50200</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B46">
+        <v>50200</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B47">
         <v>50201</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>78</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B48">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B49">
         <v>50500</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>84</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>85</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,30 @@
   </si>
   <si>
     <t>用户名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_SCHEDULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程处理失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,10 +800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D49"/>
+  <dimension ref="B1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,223 +978,256 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>11007</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21">
         <v>11101</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22">
-        <v>11201</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23">
+        <v>11201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24">
         <v>11202</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26">
         <v>11500</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>71</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29">
-        <v>20001</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34">
+        <v>20005</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35">
         <v>20006</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>86</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36">
+        <v>20007</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38">
         <v>21001</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>50</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B37">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39">
         <v>21002</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B40">
-        <v>50000</v>
-      </c>
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B41">
-        <v>50100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42">
-        <v>50101</v>
+        <v>50000</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43">
-        <v>50102</v>
+        <v>50100</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B44">
-        <v>50103</v>
+        <v>50101</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <v>50102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B46">
-        <v>50200</v>
+        <v>50103</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B47">
-        <v>50201</v>
+        <v>50104</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49">
+        <v>50200</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <v>50201</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B52">
         <v>50500</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>84</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>85</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +392,38 @@
   </si>
   <si>
     <t>技能类型为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程id为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_SCHEDULE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,10 +832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D52"/>
+  <dimension ref="B1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -989,245 +1021,289 @@
         <v>93</v>
       </c>
     </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>11008</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21">
-        <v>11101</v>
+        <v>11009</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>11010</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23">
+        <v>11011</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>11101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27">
         <v>11201</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>44</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28">
         <v>11202</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D28" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26">
-        <v>11500</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30">
-        <v>20001</v>
+        <v>11500</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31">
-        <v>20002</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32">
-        <v>20003</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33">
-        <v>20004</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34">
-        <v>20005</v>
+        <v>20001</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35">
-        <v>20006</v>
+        <v>20002</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36">
-        <v>20007</v>
+        <v>20003</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>20004</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38">
-        <v>21001</v>
+        <v>20005</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39">
-        <v>21002</v>
+        <v>20006</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <v>20007</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42">
-        <v>50000</v>
+        <v>21001</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43">
-        <v>50100</v>
+        <v>21002</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B44">
-        <v>50101</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B45">
-        <v>50102</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B46">
-        <v>50103</v>
+        <v>50000</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B47">
-        <v>50104</v>
+        <v>50100</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <v>50101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49">
-        <v>50200</v>
+        <v>50102</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50">
+        <v>50103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B51">
+        <v>50104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53">
+        <v>50200</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B54">
         <v>50201</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C54" t="s">
         <v>78</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B56">
         <v>50500</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C56" t="s">
         <v>84</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D56" t="s">
         <v>85</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NULL_DEVICEID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NULL_PASSWORD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NULL_AUTHCODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ERROR_UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,14 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXPIRE_AUTHCODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_AUTHCODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NULL_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FAIL_SEARCH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +404,42 @@
   </si>
   <si>
     <t>NULL_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人处理失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_AUTH_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRE_AUTH_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_AUTH_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有添加好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_USER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,10 +817,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -812,7 +828,7 @@
         <v>10011</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -820,7 +836,7 @@
         <v>10012</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -832,10 +848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D56"/>
+  <dimension ref="B1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,7 +987,7 @@
         <v>11003</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -982,7 +998,7 @@
         <v>11004</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -993,10 +1009,10 @@
         <v>11005</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
@@ -1004,10 +1020,10 @@
         <v>11006</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
@@ -1015,10 +1031,10 @@
         <v>11007</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
@@ -1026,10 +1042,10 @@
         <v>11008</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
@@ -1037,10 +1053,10 @@
         <v>11009</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
@@ -1048,10 +1064,10 @@
         <v>11010</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
@@ -1059,10 +1075,10 @@
         <v>11011</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
@@ -1070,7 +1086,7 @@
         <v>11101</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -1081,7 +1097,7 @@
         <v>11201</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -1092,7 +1108,7 @@
         <v>11202</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -1103,10 +1119,21 @@
         <v>11500</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>11501</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
@@ -1114,7 +1141,7 @@
         <v>20001</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
@@ -1125,7 +1152,7 @@
         <v>20002</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -1136,7 +1163,7 @@
         <v>20003</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -1147,7 +1174,7 @@
         <v>20004</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -1158,10 +1185,10 @@
         <v>20005</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
@@ -1169,10 +1196,10 @@
         <v>20006</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
@@ -1180,10 +1207,10 @@
         <v>20007</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
@@ -1191,7 +1218,7 @@
         <v>21001</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -1202,10 +1229,10 @@
         <v>21002</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
@@ -1213,10 +1240,10 @@
         <v>50000</v>
       </c>
       <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
         <v>58</v>
-      </c>
-      <c r="D46" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
@@ -1224,10 +1251,10 @@
         <v>50100</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
@@ -1235,10 +1262,10 @@
         <v>50101</v>
       </c>
       <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
         <v>59</v>
-      </c>
-      <c r="D48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
@@ -1246,10 +1273,10 @@
         <v>50102</v>
       </c>
       <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
         <v>60</v>
-      </c>
-      <c r="D49" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
@@ -1257,10 +1284,10 @@
         <v>50103</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
@@ -1268,43 +1295,54 @@
         <v>50104</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53">
-        <v>50200</v>
-      </c>
-      <c r="C53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B52">
+        <v>50105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54">
+        <v>50200</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B55">
         <v>50201</v>
       </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B57">
+        <v>50500</v>
+      </c>
+      <c r="C57" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56">
-        <v>50500</v>
-      </c>
-      <c r="C56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" t="s">
-        <v>85</v>
+      <c r="D57" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1363,18 +1401,18 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="技能值" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,6 +440,134 @@
   </si>
   <si>
     <t>NOT_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_AUTH_PLYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已被好友拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0002</t>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1102</t>
+  </si>
+  <si>
+    <t>A1103</t>
+  </si>
+  <si>
+    <t>讯飞：日程创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞：日程删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞：日程查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1202</t>
+  </si>
+  <si>
+    <t>A1203</t>
+  </si>
+  <si>
+    <t>A1204</t>
+  </si>
+  <si>
+    <t>讯飞：参与人添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞：参与人删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞：参与人查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞：参与人授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞：隐私模式开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞：第三方技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1102</t>
+  </si>
+  <si>
+    <t>D1103</t>
+  </si>
+  <si>
+    <t>D1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务：日程添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务：日程删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务：日程更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务：添加参与人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +599,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -479,12 +607,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -789,12 +927,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -848,10 +1121,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D57"/>
+  <dimension ref="B1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1136,212 +1410,223 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34">
-        <v>20001</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>11502</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40">
+        <v>20006</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41">
         <v>20007</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>85</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B42">
-        <v>21001</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43">
+        <v>21001</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B44">
         <v>21002</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>77</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B46">
-        <v>50000</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B47">
-        <v>50100</v>
+        <v>50000</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B48">
-        <v>50101</v>
+        <v>50100</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49">
-        <v>50102</v>
+        <v>50101</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50">
-        <v>50103</v>
+        <v>50102</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51">
-        <v>50104</v>
+        <v>50103</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52">
+        <v>50104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53">
         <v>50105</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>97</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B54">
-        <v>50200</v>
-      </c>
-      <c r="C54" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55">
+        <v>50200</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B56">
         <v>50201</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>73</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B57">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B58">
         <v>50500</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>79</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>80</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能值" sheetId="4" r:id="rId1"/>
@@ -929,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
@@ -1123,9 +1123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,10 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOT_AUTH_PLYER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已被好友拉黑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,6 +564,18 @@
   </si>
   <si>
     <t>业务：添加参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_AUTH_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友添加重复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,130 +949,130 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1121,11 +1129,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D58"/>
+  <dimension ref="B1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1234,399 +1242,410 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13">
-        <v>11001</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>10200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18">
-        <v>11006</v>
+        <v>11005</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20">
-        <v>11008</v>
+        <v>11007</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21">
-        <v>11009</v>
+        <v>11008</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22">
-        <v>11010</v>
+        <v>11009</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23">
+        <v>11010</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24">
         <v>11011</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>96</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26">
         <v>11101</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27">
-        <v>11201</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28">
+        <v>11201</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29">
         <v>11202</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30">
-        <v>11500</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31">
-        <v>11501</v>
+        <v>11500</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32">
+        <v>11501</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33">
         <v>11502</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
         <v>106</v>
-      </c>
-      <c r="D32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35">
-        <v>20001</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41">
+        <v>20006</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42">
         <v>20007</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>85</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B43">
-        <v>21001</v>
-      </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B44">
+        <v>21001</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45">
         <v>21002</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>77</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B47">
-        <v>50000</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B48">
-        <v>50100</v>
+        <v>50000</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49">
-        <v>50101</v>
+        <v>50100</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50">
-        <v>50102</v>
+        <v>50101</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51">
-        <v>50103</v>
+        <v>50102</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52">
-        <v>50104</v>
+        <v>50103</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53">
+        <v>50104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B54">
         <v>50105</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>97</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B55">
-        <v>50200</v>
-      </c>
-      <c r="C55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56">
+        <v>50200</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B57">
         <v>50201</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>73</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B58">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59">
         <v>50500</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>79</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>80</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -1121,11 +1121,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D58"/>
+  <dimension ref="B1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1212,421 +1212,421 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>10101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9">
-        <v>10101</v>
+        <v>10102</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10">
-        <v>10102</v>
+        <v>11001</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>11002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>11003</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13">
-        <v>11001</v>
+        <v>11004</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14">
-        <v>11002</v>
+        <v>11005</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15">
-        <v>11003</v>
+        <v>11006</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16">
-        <v>11004</v>
+        <v>11007</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17">
-        <v>11005</v>
+        <v>11008</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18">
-        <v>11006</v>
+        <v>11009</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19">
-        <v>11007</v>
+        <v>11010</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20">
-        <v>11008</v>
+        <v>11011</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21">
-        <v>11009</v>
+        <v>11101</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22">
-        <v>11010</v>
+        <v>11201</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23">
-        <v>11011</v>
+        <v>11202</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>11500</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25">
-        <v>11101</v>
+        <v>11501</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>11502</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B27">
-        <v>11201</v>
+        <v>20001</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28">
-        <v>11202</v>
+        <v>20002</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>20003</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30">
-        <v>11500</v>
+        <v>20004</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31">
-        <v>11501</v>
+        <v>20005</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32">
-        <v>11502</v>
+        <v>20006</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>20007</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>21001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35">
-        <v>20001</v>
+        <v>21002</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36">
-        <v>20002</v>
+        <v>50000</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37">
-        <v>20003</v>
+        <v>50100</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38">
-        <v>20004</v>
+        <v>50101</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39">
-        <v>20005</v>
+        <v>50102</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40">
-        <v>20006</v>
+        <v>50103</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41">
-        <v>20007</v>
+        <v>50104</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>50105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43">
-        <v>21001</v>
+        <v>50200</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B44">
-        <v>21002</v>
+        <v>50201</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B47">
-        <v>50000</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B48">
-        <v>50100</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49">
-        <v>50101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50">
-        <v>50102</v>
-      </c>
-      <c r="C50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51">
-        <v>50103</v>
-      </c>
-      <c r="C51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52">
-        <v>50104</v>
-      </c>
-      <c r="C52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53">
-        <v>50105</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B55">
-        <v>50200</v>
-      </c>
-      <c r="C55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56">
-        <v>50201</v>
-      </c>
-      <c r="C56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B58">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45">
         <v>50500</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C45" t="s">
         <v>79</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D45" t="s">
         <v>80</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,6 +568,14 @@
   </si>
   <si>
     <t>业务：添加参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_INIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,11 +1129,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D58"/>
+  <dimension ref="B1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1602,31 +1610,42 @@
         <v>50200</v>
       </c>
       <c r="C55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B57">
+        <v>50200</v>
+      </c>
+      <c r="C57" t="s">
         <v>57</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D57" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56">
-        <v>50201</v>
-      </c>
-      <c r="C56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58">
+        <v>50201</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B60">
         <v>50500</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>79</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D60" t="s">
         <v>80</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,6 +576,14 @@
   </si>
   <si>
     <t>FAIL_INIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友添加重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,11 +1137,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D60"/>
+  <dimension ref="B1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1242,410 +1250,421 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13">
-        <v>11001</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>10200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18">
-        <v>11006</v>
+        <v>11005</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20">
-        <v>11008</v>
+        <v>11007</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21">
-        <v>11009</v>
+        <v>11008</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22">
-        <v>11010</v>
+        <v>11009</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23">
+        <v>11010</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24">
         <v>11011</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>96</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26">
         <v>11101</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27">
-        <v>11201</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28">
+        <v>11201</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29">
         <v>11202</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30">
-        <v>11500</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31">
-        <v>11501</v>
+        <v>11500</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32">
+        <v>11501</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33">
         <v>11502</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>106</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35">
-        <v>20001</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41">
+        <v>20006</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42">
         <v>20007</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>85</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B43">
-        <v>21001</v>
-      </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B44">
+        <v>21001</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45">
         <v>21002</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>77</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B47">
-        <v>50000</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B48">
-        <v>50100</v>
+        <v>50000</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49">
-        <v>50101</v>
+        <v>50100</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50">
-        <v>50102</v>
+        <v>50101</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51">
-        <v>50103</v>
+        <v>50102</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52">
-        <v>50104</v>
+        <v>50103</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53">
+        <v>50104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B54">
         <v>50105</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>97</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B55">
-        <v>50200</v>
-      </c>
-      <c r="C55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56">
+        <v>50200</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B57">
         <v>50201</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>73</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B58">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59">
         <v>50300</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>141</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B60">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B61">
         <v>50500</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>79</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>80</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,6 +584,14 @@
   </si>
   <si>
     <t>REPEAT_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,11 +1145,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D61"/>
+  <dimension ref="B1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1382,289 +1390,300 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>11012</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27">
         <v>11101</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28">
-        <v>11201</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29">
+        <v>11201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30">
         <v>11202</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>44</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31">
-        <v>11500</v>
-      </c>
-      <c r="C31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32">
-        <v>11501</v>
+        <v>11500</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33">
+        <v>11501</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34">
         <v>11502</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>106</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B36">
-        <v>20001</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42">
+        <v>20006</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43">
         <v>20007</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>85</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B44">
-        <v>21001</v>
-      </c>
-      <c r="C44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B45">
+        <v>21001</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46">
         <v>21002</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>77</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B48">
-        <v>50000</v>
-      </c>
-      <c r="C48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49">
-        <v>50100</v>
+        <v>50000</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50">
-        <v>50101</v>
+        <v>50100</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51">
-        <v>50102</v>
+        <v>50101</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52">
-        <v>50103</v>
+        <v>50102</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53">
-        <v>50104</v>
+        <v>50103</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54">
+        <v>50104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B55">
         <v>50105</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>97</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56">
-        <v>50200</v>
-      </c>
-      <c r="C56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57">
+        <v>50200</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B58">
         <v>50201</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>73</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B59">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B60">
         <v>50300</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>141</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B61">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B62">
         <v>50500</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>79</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>80</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,6 +592,22 @@
   </si>
   <si>
     <t>姓名为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步版本号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_SYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步数据失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,11 +1161,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D62"/>
+  <dimension ref="B1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1401,289 +1417,311 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>11013</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28">
         <v>11101</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29">
-        <v>11201</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30">
+        <v>11201</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31">
         <v>11202</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32">
-        <v>11500</v>
-      </c>
-      <c r="C32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33">
-        <v>11501</v>
+        <v>11500</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34">
+        <v>11501</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35">
         <v>11502</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>106</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B37">
-        <v>20001</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43">
+        <v>20006</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B44">
         <v>20007</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>85</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B45">
-        <v>21001</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B46">
+        <v>21001</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B47">
         <v>21002</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>77</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49">
-        <v>50000</v>
-      </c>
-      <c r="C49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50">
-        <v>50100</v>
+        <v>50000</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51">
-        <v>50101</v>
+        <v>50100</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52">
-        <v>50102</v>
+        <v>50101</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53">
-        <v>50103</v>
+        <v>50102</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54">
-        <v>50104</v>
+        <v>50103</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55">
+        <v>50104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B56">
         <v>50105</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>97</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B57">
-        <v>50200</v>
-      </c>
-      <c r="C57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58">
+        <v>50200</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59">
         <v>50201</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>73</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B60">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B61">
         <v>50300</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>141</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62">
+        <v>50301</v>
+      </c>
+      <c r="C62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B64">
         <v>50500</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>79</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D64" t="s">
         <v>80</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="技能值" sheetId="4" r:id="rId1"/>
-    <sheet name="状态值" sheetId="2" r:id="rId2"/>
-    <sheet name="错误码" sheetId="1" r:id="rId3"/>
-    <sheet name="规则" sheetId="3" r:id="rId4"/>
+    <sheet name="字典表" sheetId="2" r:id="rId2"/>
+    <sheet name="字典数据表" sheetId="5" r:id="rId3"/>
+    <sheet name="错误码" sheetId="1" r:id="rId4"/>
+    <sheet name="规则" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="264">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,22 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_LOGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FAIL_XF_SKILL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,6 +594,360 @@
   <si>
     <t>同步数据失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+  </si>
+  <si>
+    <t>DICT_TYPE</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>重复类型</t>
+  </si>
+  <si>
+    <t>提醒方式</t>
+  </si>
+  <si>
+    <t>状态码</t>
+  </si>
+  <si>
+    <t>MQ技能值</t>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+  </si>
+  <si>
+    <t>语音文本</t>
+  </si>
+  <si>
+    <t>语音界面类型</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>日常</t>
+  </si>
+  <si>
+    <t>日程</t>
+  </si>
+  <si>
+    <t>纪念日</t>
+  </si>
+  <si>
+    <t>备忘录</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>周</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>八小时</t>
+  </si>
+  <si>
+    <t>四小时</t>
+  </si>
+  <si>
+    <t>两小时</t>
+  </si>
+  <si>
+    <t>半小时</t>
+  </si>
+  <si>
+    <t>十分钟</t>
+  </si>
+  <si>
+    <t>一小时</t>
+  </si>
+  <si>
+    <t>讯飞：第三方技能</t>
+  </si>
+  <si>
+    <t>B1000</t>
+  </si>
+  <si>
+    <t>讯飞：日程删除</t>
+  </si>
+  <si>
+    <t>业务：日程更新</t>
+  </si>
+  <si>
+    <t>业务：日程删除</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>A0001</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>讯飞：日程创建</t>
+  </si>
+  <si>
+    <t>A1101</t>
+  </si>
+  <si>
+    <t>讯飞：日程查询</t>
+  </si>
+  <si>
+    <t>讯飞：参与人添加</t>
+  </si>
+  <si>
+    <t>A1201</t>
+  </si>
+  <si>
+    <t>讯飞：参与人删除</t>
+  </si>
+  <si>
+    <t>业务：日程添加</t>
+  </si>
+  <si>
+    <t>D1101</t>
+  </si>
+  <si>
+    <t>讯飞：参与人授权</t>
+  </si>
+  <si>
+    <t>讯飞：隐私模式开关</t>
+  </si>
+  <si>
+    <t>A1301</t>
+  </si>
+  <si>
+    <t>讯飞：参与人查询</t>
+  </si>
+  <si>
+    <t>业务：添加参与人</t>
+  </si>
+  <si>
+    <t>D1201</t>
+  </si>
+  <si>
+    <t>回答文本</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>用户语音文本</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>回答链接</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>回答图片</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>日程单条数据</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>日程列表数据</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>联系人单条数据</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>联系人列表数据</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>好友添加重复</t>
+  </si>
+  <si>
+    <t>同步版本号为空</t>
+  </si>
+  <si>
+    <t>未获取授权</t>
+  </si>
+  <si>
+    <t>初始化同步失败</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>设备ID为空</t>
+  </si>
+  <si>
+    <t>账户名为空</t>
+  </si>
+  <si>
+    <t>旧密码为空</t>
+  </si>
+  <si>
+    <t>同步数据失败</t>
+  </si>
+  <si>
+    <t>用户ID为空</t>
+  </si>
+  <si>
+    <t>用户ID重复</t>
+  </si>
+  <si>
+    <t>日程处理失败</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>未认证</t>
+  </si>
+  <si>
+    <t>服务器内部错误</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>未登录</t>
+  </si>
+  <si>
+    <t>权限等级不足</t>
+  </si>
+  <si>
+    <t>手机号重复</t>
+  </si>
+  <si>
+    <t>技能类型为空</t>
+  </si>
+  <si>
+    <t>日程id为空</t>
+  </si>
+  <si>
+    <t>TOKEN验证错误</t>
+  </si>
+  <si>
+    <t>用户名错误</t>
+  </si>
+  <si>
+    <t>校验token失败</t>
+  </si>
+  <si>
+    <t>讯飞语音无对应技能</t>
+  </si>
+  <si>
+    <t>讯飞语音调用失败</t>
+  </si>
+  <si>
+    <t>参与人处理失败</t>
+  </si>
+  <si>
+    <t>查询失败</t>
+  </si>
+  <si>
+    <t>短信获取失败</t>
+  </si>
+  <si>
+    <t>登陆验证失败:用户名或密码错误</t>
+  </si>
+  <si>
+    <t>注册失败</t>
+  </si>
+  <si>
+    <t>失败统一处理</t>
+  </si>
+  <si>
+    <t>技能类型错误</t>
+  </si>
+  <si>
+    <t>验证码错误</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>日程主题为空</t>
+  </si>
+  <si>
+    <t>参与人为空</t>
+  </si>
+  <si>
+    <t>时间为空</t>
+  </si>
+  <si>
+    <t>验证码为空</t>
+  </si>
+  <si>
+    <t>token过期</t>
+  </si>
+  <si>
+    <t>讯飞语音输入为空</t>
+  </si>
+  <si>
+    <t>讯飞文本输入为空</t>
+  </si>
+  <si>
+    <t>用户尚未注册</t>
+  </si>
+  <si>
+    <t>没有添加好友</t>
+  </si>
+  <si>
+    <t>已被好友拉黑</t>
+  </si>
+  <si>
+    <t>用户ID错误</t>
+  </si>
+  <si>
+    <t>手机号错误</t>
+  </si>
+  <si>
+    <t>验证码过期</t>
   </si>
 </sst>
 </file>
@@ -660,9 +999,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -981,130 +1323,130 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
         <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
         <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
         <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
         <v>132</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
         <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
         <v>134</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
         <v>135</v>
-      </c>
-      <c r="C16" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1116,40 +1458,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2">
-        <v>10011</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3">
-        <v>10012</v>
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>401</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1161,11 +1579,1024 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>400</v>
+      </c>
+      <c r="B43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>400</v>
+      </c>
+      <c r="B44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44">
+        <v>11013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>400</v>
+      </c>
+      <c r="B45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>400</v>
+      </c>
+      <c r="B46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46">
+        <v>50300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>400</v>
+      </c>
+      <c r="B47" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>400</v>
+      </c>
+      <c r="B48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48">
+        <v>11003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>400</v>
+      </c>
+      <c r="B49" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>400</v>
+      </c>
+      <c r="B50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50">
+        <v>11006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>400</v>
+      </c>
+      <c r="B51" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51">
+        <v>50301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>400</v>
+      </c>
+      <c r="B52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>400</v>
+      </c>
+      <c r="B53" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>400</v>
+      </c>
+      <c r="B54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54">
+        <v>50104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>400</v>
+      </c>
+      <c r="B55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>400</v>
+      </c>
+      <c r="B56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>400</v>
+      </c>
+      <c r="B57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>400</v>
+      </c>
+      <c r="B58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58">
+        <v>11004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>400</v>
+      </c>
+      <c r="B59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>400</v>
+      </c>
+      <c r="B60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>400</v>
+      </c>
+      <c r="B61" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>400</v>
+      </c>
+      <c r="B62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62">
+        <v>11007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>400</v>
+      </c>
+      <c r="B63" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63">
+        <v>11008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>400</v>
+      </c>
+      <c r="B64" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64">
+        <v>20005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>400</v>
+      </c>
+      <c r="B65" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>400</v>
+      </c>
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>400</v>
+      </c>
+      <c r="B67" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67">
+        <v>50201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>400</v>
+      </c>
+      <c r="B68" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>400</v>
+      </c>
+      <c r="B69" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69">
+        <v>50105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>400</v>
+      </c>
+      <c r="B70" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70">
+        <v>50103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>400</v>
+      </c>
+      <c r="B71" t="s">
+        <v>244</v>
+      </c>
+      <c r="C71">
+        <v>50102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>400</v>
+      </c>
+      <c r="B72" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72">
+        <v>50101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>400</v>
+      </c>
+      <c r="B73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73">
+        <v>50100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>400</v>
+      </c>
+      <c r="B74" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>400</v>
+      </c>
+      <c r="B75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>400</v>
+      </c>
+      <c r="B76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>400</v>
+      </c>
+      <c r="B77" t="s">
+        <v>250</v>
+      </c>
+      <c r="C77">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>400</v>
+      </c>
+      <c r="B78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78">
+        <v>11009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>400</v>
+      </c>
+      <c r="B79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79">
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>400</v>
+      </c>
+      <c r="B80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80">
+        <v>11011</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>400</v>
+      </c>
+      <c r="B81" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81">
+        <v>11101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>400</v>
+      </c>
+      <c r="B82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82">
+        <v>21002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>400</v>
+      </c>
+      <c r="B83" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83">
+        <v>11201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>400</v>
+      </c>
+      <c r="B84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84">
+        <v>11202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>400</v>
+      </c>
+      <c r="B85" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>400</v>
+      </c>
+      <c r="B86" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86">
+        <v>11501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>400</v>
+      </c>
+      <c r="B87" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87">
+        <v>11502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>400</v>
+      </c>
+      <c r="B88" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>400</v>
+      </c>
+      <c r="B89" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>400</v>
+      </c>
+      <c r="B90" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90">
+        <v>21001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1279,10 +2710,10 @@
         <v>10200</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
@@ -1312,7 +2743,7 @@
         <v>11003</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1356,10 +2787,10 @@
         <v>11007</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
@@ -1367,10 +2798,10 @@
         <v>11008</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
@@ -1378,10 +2809,10 @@
         <v>11009</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
@@ -1389,10 +2820,10 @@
         <v>11010</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
@@ -1400,10 +2831,10 @@
         <v>11011</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
@@ -1411,10 +2842,10 @@
         <v>11012</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
@@ -1422,10 +2853,10 @@
         <v>11013</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
@@ -1433,7 +2864,7 @@
         <v>11101</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -1466,7 +2897,7 @@
         <v>11500</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
@@ -1477,10 +2908,10 @@
         <v>11501</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
@@ -1488,10 +2919,10 @@
         <v>11502</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
@@ -1532,7 +2963,7 @@
         <v>20004</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -1543,10 +2974,10 @@
         <v>20005</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
@@ -1554,10 +2985,10 @@
         <v>20006</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
@@ -1565,10 +2996,10 @@
         <v>20007</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
@@ -1576,7 +3007,7 @@
         <v>21001</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
@@ -1587,10 +3018,10 @@
         <v>21002</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
@@ -1653,10 +3084,10 @@
         <v>50104</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
@@ -1664,10 +3095,10 @@
         <v>50105</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
@@ -1686,10 +3117,10 @@
         <v>50201</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
@@ -1697,10 +3128,10 @@
         <v>50300</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
@@ -1708,10 +3139,10 @@
         <v>50301</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
@@ -1719,10 +3150,10 @@
         <v>50500</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1732,7 +3163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C8"/>
   <sheetViews>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="技能值" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="266">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -948,6 +948,13 @@
   </si>
   <si>
     <t>验证码过期</t>
+  </si>
+  <si>
+    <t>没有同步数据</t>
+  </si>
+  <si>
+    <t>NOT_SYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1581,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2592,11 +2599,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D64"/>
+  <dimension ref="B1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2925,234 +2932,245 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B38">
-        <v>20001</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>11503</v>
+      </c>
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B44">
+        <v>20006</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45">
         <v>20007</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>81</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B46">
-        <v>21001</v>
-      </c>
-      <c r="C46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B47">
+        <v>21001</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B48">
         <v>21002</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>73</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50">
-        <v>50000</v>
-      </c>
-      <c r="C50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51">
-        <v>50100</v>
+        <v>50000</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52">
-        <v>50101</v>
+        <v>50100</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53">
-        <v>50102</v>
+        <v>50101</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54">
-        <v>50103</v>
+        <v>50102</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55">
-        <v>50104</v>
+        <v>50103</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56">
+        <v>50104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B57">
         <v>50105</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>93</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B58">
-        <v>50200</v>
-      </c>
-      <c r="C58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59">
+        <v>50200</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B60">
         <v>50201</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>69</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B61">
-        <v>50300</v>
-      </c>
-      <c r="C61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62">
+        <v>50300</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B63">
         <v>50301</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>144</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B64">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65">
         <v>50500</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>75</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>76</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="268">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -954,6 +954,13 @@
   </si>
   <si>
     <t>NOT_SYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程数据为空</t>
+  </si>
+  <si>
+    <t>NULL_SCHEDULE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2599,11 +2606,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D65"/>
+  <dimension ref="B1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2866,311 +2873,322 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>11014</v>
+      </c>
+      <c r="C27" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29">
         <v>11101</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>96</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30">
-        <v>11201</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31">
+        <v>11201</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32">
         <v>11202</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>44</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33">
-        <v>11500</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34">
-        <v>11501</v>
+        <v>11500</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35">
-        <v>11502</v>
+        <v>11501</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36">
+        <v>11502</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37">
         <v>11503</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>265</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B39">
-        <v>20001</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B44">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B45">
+        <v>20006</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46">
         <v>20007</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>81</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B47">
-        <v>21001</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B48">
+        <v>21001</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B49">
         <v>21002</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>73</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51">
-        <v>50000</v>
-      </c>
-      <c r="C51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52">
-        <v>50100</v>
+        <v>50000</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53">
-        <v>50101</v>
+        <v>50100</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54">
-        <v>50102</v>
+        <v>50101</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55">
-        <v>50103</v>
+        <v>50102</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56">
-        <v>50104</v>
+        <v>50103</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57">
+        <v>50104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B58">
         <v>50105</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>93</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B59">
-        <v>50200</v>
-      </c>
-      <c r="C59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B60">
+        <v>50200</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B61">
         <v>50201</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>69</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B62">
-        <v>50300</v>
-      </c>
-      <c r="C62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63">
+        <v>50300</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B64">
         <v>50301</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>144</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B65">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66">
         <v>50500</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>75</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>76</v>
       </c>
     </row>

--- a/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
+++ b/A-开发相关文档素材/5.其他文档/公共配置数据/CODE值管理.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="270">
   <si>
     <t>错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -961,6 +961,14 @@
   </si>
   <si>
     <t>NULL_SCHEDULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_USER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息更新失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2606,11 +2614,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D66"/>
+  <dimension ref="B1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3137,58 +3145,69 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B60">
-        <v>50200</v>
-      </c>
-      <c r="C60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" t="s">
-        <v>61</v>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59">
+        <v>50106</v>
+      </c>
+      <c r="C59" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61">
+        <v>50200</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B62">
         <v>50201</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>69</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B63">
-        <v>50300</v>
-      </c>
-      <c r="C63" t="s">
-        <v>137</v>
-      </c>
-      <c r="D63" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64">
+        <v>50300</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65">
         <v>50301</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>144</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B66">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67">
         <v>50500</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>75</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>76</v>
       </c>
     </row>
